--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value199.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value199.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.096294779733226</v>
+        <v>3.545942068099976</v>
       </c>
       <c r="B1">
-        <v>1.737288854727353</v>
+        <v>2.927317142486572</v>
       </c>
       <c r="C1">
-        <v>2.536336110173192</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.564889326226087</v>
+        <v>2.932314157485962</v>
       </c>
       <c r="E1">
-        <v>0.7315162380106605</v>
+        <v>3.049896717071533</v>
       </c>
     </row>
   </sheetData>
